--- a/results/pseudomonas_putida/Phase_Study/functional_composition_of_core_genes.xlsx
+++ b/results/pseudomonas_putida/Phase_Study/functional_composition_of_core_genes.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,115 +454,115 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Amino acid</t>
+          <t>Acetate specific response</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.31911532385466</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Carbon</t>
+          <t>Acetate utilization</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.48341232227488</v>
+        <v>0.2971768202080238</v>
       </c>
       <c r="C3" t="n">
-        <v>29.296875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Element homeostasis</t>
+          <t>Acetoin catabolism</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.211690363349131</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>4.296875</v>
+        <v>0.3816793893129771</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Energy generation</t>
+          <t>Alcohol/aromatics catabolism</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.947867298578199</v>
+        <v>0.1485884101040119</v>
       </c>
       <c r="C5" t="n">
-        <v>0.390625</v>
+        <v>2.67175572519084</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Genomic</t>
+          <t>Alginate biosynthesis</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.053712480252765</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3.515625</v>
+        <v>0.3816793893129771</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Phage</t>
+          <t>Amino acid transportation</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2.37741456166419</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1.145038167938931</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secondary metabolite</t>
+          <t>Aromatic acid catabolism</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.317535545023696</v>
+        <v>1.337295690936107</v>
       </c>
       <c r="C8" t="n">
-        <v>0.390625</v>
+        <v>5.34351145038168</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Stress</t>
+          <t>Benzoate catabolism</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.37440758293839</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>13.671875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Structural components</t>
+          <t>Biosynthesis of lipodepsinonapeptide phytotoxins</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.1485884101040119</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -571,27 +571,768 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Translation</t>
+          <t>Branched amino acid transportation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.739336492890995</v>
+        <v>0.1485884101040119</v>
       </c>
       <c r="C11" t="n">
-        <v>2.34375</v>
+        <v>0.3816793893129771</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Uncharacterized</t>
+          <t>C2 carbon metabolism</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.90679304897314</v>
+        <v>2.080237741456166</v>
       </c>
       <c r="C12" t="n">
-        <v>21.09375</v>
+        <v>1.145038167938931</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Cell mobility</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Chaeperone</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1485884101040119</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Citrate transportation</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1485884101040119</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.145038167938931</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Fatty acid catabolism</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3.417533432392273</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.816793893129771</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Flagella synthesis</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>FleQ related exporters, aldehyde stress</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Fructose catabolism</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1485884101040119</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Galactose ALE specific</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.040118870728083</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7633587786259541</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Glycine Betaine Catabolism</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2.37741456166419</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.671755725190839</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Glycine metabolism</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3.566121842496285</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.053435114503817</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Glycolate catabolism</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.4457652303120356</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.2971768202080238</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Histidine metabolism</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.4457652303120356</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.526717557251908</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Homocysteine metabolism</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1485884101040119</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>ICE related</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1485884101040119</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.3816793893129771</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Inorganic ion transport and metabolism</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.7429420505200593</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Lactate catabolism</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1485884101040119</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3816793893129771</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Light inducible iModulon</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.2971768202080238</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.3816793893129771</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Metal homeostasis</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.1485884101040119</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Metal related response</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1.188707280832095</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.671755725190839</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Muconate production study</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2.080237741456166</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3.435114503816794</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Multiple stress response</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2.526002971768202</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3.053435114503817</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Multiple stress response, PP_3231-89</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_0943, hypothetical protein, 393 bp</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2.080237741456166</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.671755725190839</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_1176 hypothetical protein, 135 bp</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_1864, hypothetical protein, 153 bp</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_2520 hypothetical protein, 117 bp</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_5437 hypothetical protein, 183 bp</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Noise, kdpF, too small peptide</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>13.07578008915305</v>
+      </c>
+      <c r="C42" t="n">
+        <v>12.21374045801527</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Osmotic stress response</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5943536404160475</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.3816793893129771</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Osmotic stress, lipoprotein, membrane</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.1485884101040119</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.3816793893129771</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Oxidative stress</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.4457652303120356</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.7633587786259541</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>PP_2260-3, sugar transport</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>PP_3636-3639</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Pentose and glucuronate interconversions</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.1485884101040119</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.7633587786259541</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Phage related</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Polyamine metabolism</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1.485884101040119</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.7633587786259541</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Protein synthesis</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2.526002971768202</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Pyoverdine biosynthesis</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2.971768202080237</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.3816793893129771</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Redox state homeostasis</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.7429420505200593</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Ribose and lipid catabolism</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>4.75482912332838</v>
+      </c>
+      <c r="C54" t="n">
+        <v>9.16030534351145</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Ribose, nicotinic acid catabolism</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1.337295690936107</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.526717557251908</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Starvation response</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2.228826151560178</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.290076335877862</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Stationary phase response</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>3.714710252600297</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4.198473282442748</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Sugar catabolism</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.5943536404160475</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.7633587786259541</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Sulfur metabolism</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.526717557251908</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>T6SS system</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>TCA cycle</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1.931649331352155</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.145038167938931</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Translation</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2.228826151560178</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2.290076335877862</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Triethylamine hydrogen sulfate stress</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>TurA deletion</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>TurB deletion</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Tyrosine metabolism</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>6.389301634472512</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4.580152671755725</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>mfsR related</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.2971768202080238</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>potentially iron metabolism</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.1485884101040119</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.3816793893129771</v>
       </c>
     </row>
   </sheetData>
@@ -605,7 +1346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.390625</v>
+        <v>0.6443298969072164</v>
       </c>
     </row>
     <row r="3">
@@ -650,7 +1391,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1579778830963665</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -659,258 +1400,258 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>4.948453608247423</v>
       </c>
       <c r="C4" t="n">
-        <v>1.5625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>S_Alanine_and_Aspartate_Metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.421800947867299</v>
+        <v>0.3092783505154639</v>
       </c>
       <c r="C5" t="n">
-        <v>0.78125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>S_Alginate_biosynthesis</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="C6" t="n">
-        <v>0.78125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1579778830963665</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.78125</v>
+        <v>0.2577319587628866</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
+          <t>S_Alanine_and_Aspartate_Metabolism</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.6185567010309279</v>
       </c>
       <c r="C8" t="n">
-        <v>2.734375</v>
+        <v>0.2577319587628866</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
+          <t>S_Alginate_biosynthesis</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.390625</v>
+        <v>5.025773195876289</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
+          <t>S_Alternate_Carbon</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.3092783505154639</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1.15979381443299</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
+          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.171875</v>
+        <v>1.15979381443299</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
+          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.2577319587628866</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
+          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1579778830963665</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.3865979381443299</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
+          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.949447077409163</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.296875</v>
+        <v>0.902061855670103</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
+          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9478672985781991</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="C15" t="n">
-        <v>1.953125</v>
+        <v>0.1288659793814433</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
+          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.315955766192733</v>
+        <v>0.5154639175257731</v>
       </c>
       <c r="C16" t="n">
-        <v>1.5625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.631911532385466</v>
+        <v>0.7216494845360825</v>
       </c>
       <c r="C17" t="n">
-        <v>0.390625</v>
+        <v>2.31958762886598</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.5154639175257731</v>
       </c>
       <c r="C18" t="n">
-        <v>0.78125</v>
+        <v>1.15979381443299</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7898894154818324</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="C19" t="n">
-        <v>1.171875</v>
+        <v>2.706185567010309</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>S_Arginine_and_Proline_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.579778830963665</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="C20" t="n">
-        <v>0.390625</v>
+        <v>0.2577319587628866</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.895734597156398</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>3.515625</v>
+        <v>0.3865979381443299</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.3092783505154639</v>
       </c>
       <c r="C22" t="n">
-        <v>1.171875</v>
+        <v>0.1288659793814433</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
+          <t>S_Arginine_and_Proline_Metabolism</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.315955766192733</v>
+        <v>1.443298969072165</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -919,89 +1660,89 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
+          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.8247422680412372</v>
       </c>
       <c r="C24" t="n">
-        <v>0.390625</v>
+        <v>2.190721649484536</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
+          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4739336492890995</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>2.734375</v>
+        <v>0.5154639175257731</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
+          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="C26" t="n">
-        <v>0.390625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>S_Butanoate_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.263823064770932</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="C27" t="n">
-        <v>1.953125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis</t>
+          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.527646129541864</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="C28" t="n">
-        <v>1.171875</v>
+        <v>0.5154639175257731</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
+          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.631911532385466</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>0.2577319587628866</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
+          <t>S_Butanoate_Metabolism</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.5154639175257731</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1010,24 +1751,24 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.105845181674566</v>
+        <v>1.030927835051546</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.3865979381443299</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.053712480252765</v>
+        <v>0.5154639175257731</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1036,115 +1777,115 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.579778830963665</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.1288659793814433</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.317535545023697</v>
+        <v>1.134020618556701</v>
       </c>
       <c r="C34" t="n">
-        <v>2.734375</v>
+        <v>0.2577319587628866</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.315955766192733</v>
+        <v>1.34020618556701</v>
       </c>
       <c r="C35" t="n">
-        <v>0.78125</v>
+        <v>0.2577319587628866</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.737756714060032</v>
+        <v>0.9278350515463918</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.3865979381443299</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.7898894154818324</v>
+        <v>2.164948453608247</v>
       </c>
       <c r="C37" t="n">
-        <v>0.390625</v>
+        <v>2.706185567010309</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.737756714060032</v>
+        <v>0.3092783505154639</v>
       </c>
       <c r="C38" t="n">
-        <v>0.390625</v>
+        <v>0.1288659793814433</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.053712480252765</v>
+        <v>1.54639175257732</v>
       </c>
       <c r="C39" t="n">
-        <v>0.390625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.631911532385466</v>
+        <v>0.7216494845360825</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>0.1288659793814433</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.579778830963665</v>
+        <v>1.443298969072165</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1153,37 +1894,37 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.631911532385466</v>
+        <v>1.030927835051546</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>0.5154639175257731</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.895734597156398</v>
+        <v>0.6185567010309279</v>
       </c>
       <c r="C43" t="n">
-        <v>0.78125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>0.7216494845360825</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1192,11 +1933,11 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1.421800947867299</v>
+        <v>0.7216494845360825</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1205,37 +1946,37 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.579778830963665</v>
+        <v>1.030927835051546</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2.577319587628866</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.421800947867299</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1.675257731958763</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1.579778830963665</v>
+        <v>0.9278350515463918</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1244,11 +1985,11 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9478672985781991</v>
+        <v>1.443298969072165</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1257,505 +1998,505 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.631911532385466</v>
+        <v>0.7216494845360825</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>0.1288659793814433</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>S_Cysteine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.4739336492890995</v>
+        <v>1.030927835051546</v>
       </c>
       <c r="C51" t="n">
-        <v>1.171875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2.527646129541864</v>
+        <v>0.5154639175257731</v>
       </c>
       <c r="C52" t="n">
-        <v>3.90625</v>
+        <v>0.5154639175257731</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid__Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1.895734597156398</v>
+        <v>0.6185567010309279</v>
       </c>
       <c r="C53" t="n">
-        <v>0.78125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>S_Formaldehyde_Metabolism</t>
+          <t>S_Cysteine_Metabolism</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.579778830963665</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="C54" t="n">
-        <v>0.78125</v>
+        <v>0.2577319587628866</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>S_Gluconeogenesis</t>
+          <t>S_Fatty_Acid_Metabolism</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2.369668246445498</v>
+        <v>6.804123711340206</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>13.65979381443299</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>S_Glutamate_Metabolism</t>
+          <t>S_Fatty_Acid__Biosynthesis</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1.579778830963665</v>
+        <v>6.701030927835052</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1.030927835051546</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>S_Glycerophospholipid_Metabolism</t>
+          <t>S_Formaldehyde_Metabolism</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2.527646129541864</v>
+        <v>0.3092783505154639</v>
       </c>
       <c r="C57" t="n">
-        <v>5.46875</v>
+        <v>0.2577319587628866</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>S_Glycine__Serine_and_threonine_metabolism</t>
+          <t>S_Gluconeogenesis</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2.053712480252765</v>
+        <v>1.030927835051546</v>
       </c>
       <c r="C58" t="n">
-        <v>0.390625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>S_Glycolysis</t>
+          <t>S_Glutamate_Metabolism</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1.421800947867299</v>
+        <v>1.237113402061856</v>
       </c>
       <c r="C59" t="n">
-        <v>0.390625</v>
+        <v>0.1288659793814433</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
+          <t>S_Glycerophospholipid_Metabolism</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1.105845181674566</v>
+        <v>4.43298969072165</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>6.829896907216495</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>S_Heavy_Metal_Tolerance</t>
+          <t>S_Glycine__Serine_and_threonine_metabolism</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.631911532385466</v>
+        <v>0.5154639175257731</v>
       </c>
       <c r="C61" t="n">
-        <v>3.125</v>
+        <v>0.3865979381443299</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>S_Histidine_Metabolism</t>
+          <t>S_Glycolysis</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1579778830963665</v>
+        <v>1.134020618556701</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>0.1288659793814433</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>S_Inorganic_polyphosphates_metabolism</t>
+          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>0.9278350515463918</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>0.1288659793814433</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>S_Iron_uptake_and_metabolism</t>
+          <t>S_Heavy_Metal_Tolerance</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>5.055292259083728</v>
+        <v>1.237113402061856</v>
       </c>
       <c r="C64" t="n">
-        <v>0.78125</v>
+        <v>1.417525773195876</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>S_Lysine_Metabolism</t>
+          <t>S_Histidine_Metabolism</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3.15955766192733</v>
+        <v>0.3092783505154639</v>
       </c>
       <c r="C65" t="n">
-        <v>1.953125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>S_Methionine_Metabolism</t>
+          <t>S_Inorganic_polyphosphates_metabolism</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1.105845181674566</v>
+        <v>0.6185567010309279</v>
       </c>
       <c r="C66" t="n">
-        <v>2.34375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>S_Nitrogen_Metabolism</t>
+          <t>S_Iron_uptake_and_metabolism</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1.134020618556701</v>
       </c>
       <c r="C67" t="n">
-        <v>0.390625</v>
+        <v>0.5154639175257731</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>S_Nucleotide_Salvage_Pathway</t>
+          <t>S_Lysine_Metabolism</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.4739336492890995</v>
+        <v>1.34020618556701</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>0.2577319587628866</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>S_Oxidative_Phosphorylation</t>
+          <t>S_Methionine_Metabolism</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>4.581358609794629</v>
+        <v>0.4123711340206186</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>0.7731958762886598</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>S_PHAs_Metabolism</t>
+          <t>S_Nitrogen_Metabolism</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.315955766192733</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.78125</v>
+        <v>0.3865979381443299</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>S_Pentose_Phosphate_Pathway</t>
+          <t>S_Nucleotide_Salvage_Pathway</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1.105845181674566</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>0.3865979381443299</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
+          <t>S_Oxidative_Phosphorylation</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2.527646129541864</v>
+        <v>0.9278350515463918</v>
       </c>
       <c r="C72" t="n">
-        <v>1.953125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>S_Phosphonate_and_phosphinate_metabolism</t>
+          <t>S_PHAs_Metabolism</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>10.10309278350515</v>
       </c>
       <c r="C73" t="n">
-        <v>0.390625</v>
+        <v>0.5154639175257731</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>S_Plant_growth_promoting</t>
+          <t>S_Pentose_Phosphate_Pathway</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.315955766192733</v>
+        <v>0.6185567010309279</v>
       </c>
       <c r="C74" t="n">
-        <v>1.171875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>S_Purine_Metabolism</t>
+          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>5.213270142180095</v>
+        <v>1.443298969072165</v>
       </c>
       <c r="C75" t="n">
-        <v>2.34375</v>
+        <v>0.902061855670103</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>S_Pyrimidine_Metabolism</t>
+          <t>S_Phosphonate_and_phosphinate_metabolism</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2.369668246445498</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>1.171875</v>
+        <v>0.2577319587628866</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>S_Pyruvate_Metabolism</t>
+          <t>S_Plant_growth_promoting</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1.105845181674566</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>1.171875</v>
+        <v>0.5154639175257731</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>S_Starch_and_Sucrose_Metabolism</t>
+          <t>S_Purine_Metabolism</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.315955766192733</v>
+        <v>4.123711340206185</v>
       </c>
       <c r="C78" t="n">
-        <v>0.390625</v>
+        <v>2.061855670103093</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>S_Sulfur_Metabolism</t>
+          <t>S_Pyrimidine_Metabolism</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.4739336492890995</v>
+        <v>2.989690721649485</v>
       </c>
       <c r="C79" t="n">
-        <v>4.296875</v>
+        <v>1.93298969072165</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>S_TCA_Cycle</t>
+          <t>S_Pyruvate_Metabolism</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>3.15955766192733</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>0.5154639175257731</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>S_Transport__ABC_system</t>
+          <t>S_Starch_and_Sucrose_Metabolism</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>8.688783570300158</v>
+        <v>1.030927835051546</v>
       </c>
       <c r="C81" t="n">
-        <v>9.765625</v>
+        <v>0.5154639175257731</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>S_Transport__Inner_Membrane</t>
+          <t>S_Sulfur_Metabolism</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>8.530805687203792</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>15.625</v>
+        <v>2.448453608247423</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>S_Transport__Outer_Membrane</t>
+          <t>S_TCA_Cycle</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>3.001579778830964</v>
+        <v>1.855670103092784</v>
       </c>
       <c r="C83" t="n">
-        <v>5.859375</v>
+        <v>0.1288659793814433</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>S_Transport__solvent_extrusion</t>
+          <t>S_Transport__ABC_system</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>3.402061855670103</v>
       </c>
       <c r="C84" t="n">
-        <v>0.390625</v>
+        <v>9.407216494845361</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>S_Urea_cycleamino_group_metabolism</t>
+          <t>S_Transport__Inner_Membrane</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.1579778830963665</v>
+        <v>4.948453608247423</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>7.216494845360824</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
+          <t>S_Transport__Outer_Membrane</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.4739336492890995</v>
+        <v>4.123711340206185</v>
       </c>
       <c r="C86" t="n">
-        <v>0.78125</v>
+        <v>9.149484536082474</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>S_Xenobiotic_tolerance</t>
+          <t>S_Transport__solvent_extrusion</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.1579778830963665</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>3.125</v>
+        <v>1.030927835051546</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>S_tRNA_Charging</t>
+          <t>S_Urea_cycleamino_group_metabolism</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.315955766192733</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -1764,14 +2505,53 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
+          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1.752577319587629</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.6443298969072164</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>S_Xenobiotic_tolerance</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.7731958762886598</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>S_tRNA_Charging</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.2061855670103093</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.93298969072165</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
           <t>Unassigned</t>
         </is>
       </c>
-      <c r="B89" t="n">
-        <v>2.053712480252765</v>
-      </c>
-      <c r="C89" t="n">
-        <v>8.203125</v>
+      <c r="B92" t="n">
+        <v>0.7216494845360825</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3.092783505154639</v>
       </c>
     </row>
   </sheetData>
